--- a/biology/Botanique/José_Mariano_da_Conceição_Velloso/José_Mariano_da_Conceição_Velloso.xlsx
+++ b/biology/Botanique/José_Mariano_da_Conceição_Velloso/José_Mariano_da_Conceição_Velloso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Mariano_da_Concei%C3%A7%C3%A3o_Velloso</t>
+          <t>José_Mariano_da_Conceição_Velloso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">José Mariano da Conceição Velloso, né à Tirandentes en 1742 et mort à Rio de Janeiro en 1811, est frère franciscain et botaniste portugais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Mariano_da_Concei%C3%A7%C3%A3o_Velloso</t>
+          <t>José_Mariano_da_Conceição_Velloso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après son entrée chez les franciscains il suit le parcours de formation classique de son ordre en étudiant la philosophie et la théologie à Rio de Janeiro avant d'être ordonné prêtre en 1766. Quelques années plus tard, il est envoyé à São Paulo comme maître de géométrie et enseignant de rhétorique. Curieux il se met à collectionner entre 1783 à 1790 des spécimens d'animaux, de végétaux et de minéraux de la province de Rio de Janeiro, dont il fait la description dans ses Florae Fluminensis, composées ensuite entre 1825-1831.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Mariano_da_Concei%C3%A7%C3%A3o_Velloso</t>
+          <t>José_Mariano_da_Conceição_Velloso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plantarum Cryptogamicarum Britanniae Lusitanorum Botanicorum (1800)
 Florae Fluminensis (1825-27; 1831) Œuvre principale
